--- a/document/项目安排计划/项目工作整体计划汇总-汇报适用.xlsx
+++ b/document/项目安排计划/项目工作整体计划汇总-汇报适用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1DC278-CA06-0047-B8F5-4EC889EAFA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2DBB8-0676-1049-9036-8079FC394228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
@@ -1934,23 +1934,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1962,7 +2044,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2027,6 +2112,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2072,6 +2169,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,62 +2208,47 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2153,41 +2259,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2199,48 +2283,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2250,65 +2304,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2665,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
@@ -2681,17 +2681,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -2723,82 +2723,82 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="108"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
     </row>
     <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2807,56 +2807,56 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="110" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="83" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="55"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="55"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
@@ -2865,19 +2865,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="55"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="7" t="s">
         <v>86</v>
       </c>
@@ -2886,38 +2886,38 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="88" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="88" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="84" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2928,17 +2928,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="56" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
@@ -2947,15 +2947,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="50"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="7" t="s">
         <v>88</v>
       </c>
@@ -2964,20 +2964,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="50"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50" t="s">
+      <c r="G16" s="88"/>
+      <c r="H16" s="88" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2985,53 +2985,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="50"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="50"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="50"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
@@ -3040,19 +3040,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="50"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3061,17 +3061,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
@@ -3083,19 +3083,19 @@
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="88" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="88" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -3109,32 +3109,32 @@
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="88" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3143,17 +3143,17 @@
       <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="88" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50" t="s">
+      <c r="G25" s="88"/>
+      <c r="H25" s="88" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -3161,65 +3161,65 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="50"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="56" t="s">
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="56"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="84"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="84"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="88" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3228,59 +3228,60 @@
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="88" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="88" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="50"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="88"/>
       <c r="H31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="50"/>
+      <c r="I31" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A20"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="I30:I31"/>
@@ -3297,22 +3298,21 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,10 +3462,10 @@
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="121" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="15"/>
@@ -3477,8 +3477,8 @@
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="86"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="16"/>
       <c r="I4" s="11"/>
       <c r="P4" s="11"/>
@@ -3488,8 +3488,8 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="86"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="17"/>
       <c r="I5" s="11"/>
       <c r="P5" s="11"/>
@@ -3499,8 +3499,8 @@
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="18"/>
       <c r="I6" s="11"/>
       <c r="P6" s="11"/>
@@ -3510,8 +3510,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="17" thickBot="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="19"/>
       <c r="I7" s="11"/>
       <c r="P7" s="11"/>
@@ -3529,10 +3529,10 @@
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="126" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="15"/>
@@ -3541,24 +3541,24 @@
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="83"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="I10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="83"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="I11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="83"/>
-      <c r="B12" s="94" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="127" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="15"/>
@@ -3568,8 +3568,8 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="83"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -3577,8 +3577,8 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="83"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -3586,8 +3586,8 @@
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="83"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3595,7 +3595,7 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:44" s="24" customFormat="1">
-      <c r="A16" s="91"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="47" t="s">
         <v>113</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="AR16"/>
     </row>
     <row r="17" spans="1:17" s="27" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="92"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -3668,10 +3668,10 @@
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="126" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="18"/>
@@ -3681,24 +3681,24 @@
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="83"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="127"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="I20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="83"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="127"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="I21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="83"/>
-      <c r="B22" s="95" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="128" t="s">
         <v>120</v>
       </c>
       <c r="F22" s="18"/>
@@ -3706,15 +3706,15 @@
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="83"/>
-      <c r="B23" s="95"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="128"/>
       <c r="F23" s="17"/>
       <c r="I23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="83"/>
-      <c r="B24" s="95" t="s">
+      <c r="A24" s="116"/>
+      <c r="B24" s="128" t="s">
         <v>121</v>
       </c>
       <c r="G24" s="15"/>
@@ -3728,8 +3728,8 @@
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="83"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="128"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="31"/>
@@ -3741,8 +3741,8 @@
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="83"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="128"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="32"/>
@@ -3754,8 +3754,8 @@
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="83"/>
-      <c r="B27" s="95"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="128"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="33"/>
@@ -3767,8 +3767,8 @@
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="83"/>
-      <c r="B28" s="95"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="128"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="34"/>
@@ -3780,7 +3780,7 @@
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:17" s="24" customFormat="1" ht="17">
-      <c r="A29" s="91"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="35" t="s">
         <v>122</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="17" thickBot="1">
-      <c r="A30" s="82"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="36" t="s">
         <v>123</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="114" t="s">
         <v>125</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -3827,7 +3827,7 @@
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="82"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="36" t="s">
         <v>127</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="R34" s="23"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="114" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -3866,7 +3866,7 @@
       <c r="P35" s="39"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="83"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="40" t="s">
         <v>131</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="82"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="36" t="s">
         <v>132</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="Q38" s="23"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="114" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="38" t="s">
@@ -3912,7 +3912,7 @@
       <c r="U39" s="41"/>
     </row>
     <row r="40" spans="1:21" s="43" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="84"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="42" t="s">
         <v>136</v>
       </c>
@@ -3953,210 +3953,199 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="98" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="100"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105" t="s">
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="106"/>
+      <c r="H2" s="148"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="133"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="111" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113">
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="136">
         <v>43705</v>
       </c>
-      <c r="H4" s="114"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="111" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="113">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="136">
         <v>43706</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="110" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="113" t="s">
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="113"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="110" t="s">
+      <c r="B12" s="135"/>
+      <c r="C12" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="110"/>
+      <c r="H12" s="133"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="101"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="110" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="117">
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="134">
         <v>43716</v>
       </c>
-      <c r="H14" s="110"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="110" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="117">
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134">
         <v>43718</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:H13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4167,6 +4156,17 @@
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="C6:F8"/>
     <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4183,168 +4183,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="24.6640625" style="123" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="123" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="123"/>
+    <col min="1" max="3" width="24.6640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="50" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131" t="s">
+      <c r="A4" s="160"/>
+      <c r="B4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="132"/>
+      <c r="D4" s="163"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="57" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="166"/>
     </row>
     <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24">
-      <c r="A8" s="130"/>
-      <c r="B8" s="141" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="61" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="130"/>
-      <c r="B9" s="141" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="61" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
-      <c r="A10" s="130"/>
-      <c r="B10" s="141" t="s">
+      <c r="A10" s="160"/>
+      <c r="B10" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="61" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="133"/>
-      <c r="B11" s="143" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="57" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="65" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4398,7 +4398,7 @@
       <c r="B2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="150">
+      <c r="C2" s="66">
         <v>43706</v>
       </c>
       <c r="D2" s="48" t="s">
@@ -4406,101 +4406,101 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="151">
+      <c r="C3" s="167">
         <v>43706</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="84" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="84"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="151">
+      <c r="C6" s="167">
         <v>43706</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="84" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="84"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="84" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="84"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="50"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="152" t="s">
+      <c r="C13" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="84"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="50"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="49" t="s">
@@ -4509,7 +4509,7 @@
       <c r="B15" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="66">
         <v>43715</v>
       </c>
       <c r="D15" s="49" t="s">
@@ -4538,7 +4538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10F8FC7-83C0-A247-AD18-7DA3595A718B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4551,212 +4551,212 @@
     <col min="5" max="5" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="156" customFormat="1" ht="24">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:5" s="68" customFormat="1" ht="24">
+      <c r="A1" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-    </row>
-    <row r="2" spans="1:5" s="156" customFormat="1">
-      <c r="A2" s="157" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
+    </row>
+    <row r="2" spans="1:5" s="68" customFormat="1">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="157" t="s">
+      <c r="E2" s="69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="161" customFormat="1" ht="17">
-      <c r="A3" s="158" t="s">
+    <row r="3" spans="1:5" s="72" customFormat="1" ht="17">
+      <c r="A3" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="164" customFormat="1" ht="102">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159" t="s">
+    <row r="4" spans="1:5" s="75" customFormat="1" ht="102">
+      <c r="A4" s="174"/>
+      <c r="B4" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="74" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="166" customFormat="1" ht="68">
-      <c r="A5" s="158"/>
-      <c r="B5" s="162" t="s">
+    <row r="5" spans="1:5" s="77" customFormat="1" ht="68">
+      <c r="A5" s="174"/>
+      <c r="B5" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="162" t="s">
+      <c r="C5" s="174"/>
+      <c r="D5" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="76" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="161" customFormat="1">
-      <c r="A6" s="167" t="s">
+    <row r="6" spans="1:5" s="72" customFormat="1">
+      <c r="A6" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-    </row>
-    <row r="7" spans="1:5" s="171" customFormat="1" ht="85">
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+    </row>
+    <row r="7" spans="1:5" s="80" customFormat="1" ht="85">
       <c r="A7" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="79" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="171" customFormat="1" ht="51">
+    <row r="8" spans="1:5" s="80" customFormat="1" ht="51">
       <c r="A8" s="168"/>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="76" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="171" customFormat="1">
-      <c r="A9" s="167" t="s">
+    <row r="9" spans="1:5" s="80" customFormat="1">
+      <c r="A9" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-    </row>
-    <row r="10" spans="1:5" s="171" customFormat="1" ht="17">
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+    </row>
+    <row r="10" spans="1:5" s="80" customFormat="1" ht="17">
       <c r="A10" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="81" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="171" customFormat="1" ht="34">
+    <row r="11" spans="1:5" s="80" customFormat="1" ht="34">
       <c r="A11" s="168"/>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="173" t="s">
+      <c r="E11" s="82" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="171" customFormat="1" ht="85">
+    <row r="12" spans="1:5" s="80" customFormat="1" ht="85">
       <c r="A12" s="168"/>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="171" customFormat="1" ht="68">
+    <row r="13" spans="1:5" s="80" customFormat="1" ht="68">
       <c r="A13" s="168"/>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="E13" s="82" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="171" customFormat="1" ht="85">
+    <row r="14" spans="1:5" s="80" customFormat="1" ht="85">
       <c r="A14" s="168"/>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="173" t="s">
+      <c r="E14" s="82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="171" customFormat="1">
-      <c r="A15" s="174" t="s">
+    <row r="15" spans="1:5" s="80" customFormat="1">
+      <c r="A15" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="8">
